--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="4" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -679,164 +688,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -845,160 +934,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,24 +507,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="4" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="4" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -648,188 +630,108 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>0</t>
@@ -846,86 +748,6 @@
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -934,200 +756,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -634,87 +634,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -756,87 +756,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -634,87 +634,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -756,87 +756,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="4" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -630,124 +639,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -756,120 +845,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="4" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -679,164 +688,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -845,160 +934,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,24 +507,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="4" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="4" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -648,188 +630,108 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>0</t>
@@ -846,86 +748,6 @@
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -934,200 +756,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -634,87 +634,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -756,87 +756,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -634,87 +634,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -756,87 +756,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="4" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -630,124 +639,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -756,120 +845,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="4" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -679,164 +688,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -845,160 +934,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,24 +507,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="4" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="4" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -648,188 +630,108 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>0</t>
@@ -846,86 +748,6 @@
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -934,200 +756,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -634,87 +634,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -756,87 +756,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -634,87 +634,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -756,87 +756,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="4" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -630,124 +639,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -756,120 +845,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="4" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -679,164 +688,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -845,160 +934,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,14 +481,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="4" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="3" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
@@ -507,24 +507,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="4" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="4" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -648,188 +630,108 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>0</t>
@@ -846,288 +748,112 @@
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v/>
+      </c>
+      <c r="B3" t="n">
+        <v/>
+      </c>
+      <c r="C3" t="n">
+        <v/>
+      </c>
+      <c r="D3" t="n">
+        <v/>
+      </c>
+      <c r="E3" t="n">
+        <v/>
+      </c>
+      <c r="F3" t="n">
+        <v/>
+      </c>
+      <c r="G3" t="n">
+        <v/>
+      </c>
+      <c r="H3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -490,14 +490,14 @@
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="4" customWidth="1" min="12" max="12"/>
-    <col width="4" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="3" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
@@ -634,87 +634,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -778,49 +778,33 @@
       <c r="H3" t="n">
         <v/>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -156,31 +156,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -473,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,26 +458,26 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="3" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="12" max="12"/>
+    <col width="3" customWidth="1" min="13" max="13"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="3" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
     <col width="4" customWidth="1" min="21" max="21"/>
-    <col width="4" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="22" max="22"/>
     <col width="3" customWidth="1" min="23" max="23"/>
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
@@ -634,210 +609,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v/>
-      </c>
-      <c r="B3" t="n">
-        <v/>
-      </c>
-      <c r="C3" t="n">
-        <v/>
-      </c>
-      <c r="D3" t="n">
-        <v/>
-      </c>
-      <c r="E3" t="n">
-        <v/>
-      </c>
-      <c r="F3" t="n">
-        <v/>
-      </c>
-      <c r="G3" t="n">
-        <v/>
-      </c>
-      <c r="H3" t="n">
-        <v/>
-      </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,164 +663,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="3" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,284 +605,124 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,164 +663,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="3" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,284 +605,124 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,164 +663,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="3" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,284 +605,124 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,15 +473,6 @@
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="3" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
-    <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="4" customWidth="1" min="21" max="21"/>
-    <col width="3" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="3" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -565,46 +556,6 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -683,46 +634,6 @@
         </is>
       </c>
       <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="4" customWidth="1" min="3" max="3"/>
     <col width="3" customWidth="1" min="4" max="4"/>
@@ -464,6 +464,15 @@
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="3" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="4" customWidth="1" min="12" max="12"/>
+    <col width="3" customWidth="1" min="13" max="13"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="3" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -507,44 +516,124 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
     <col width="3" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="4" customWidth="1" min="12" max="12"/>
     <col width="3" customWidth="1" min="13" max="13"/>
@@ -473,6 +473,15 @@
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="3" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="4" customWidth="1" min="21" max="21"/>
+    <col width="3" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="3" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -556,84 +565,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
     <col width="3" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="17" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
     <col width="4" customWidth="1" min="21" max="21"/>
     <col width="3" customWidth="1" min="22" max="22"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,15 +482,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -614,204 +605,124 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>03-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,164 +663,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="17" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="3" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,284 +605,124 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>07-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>10-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>10-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,164 +663,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="17" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="3" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,284 +605,124 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>17-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>16-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,164 +663,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="17" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="3" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,284 +605,124 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>24-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,164 +663,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>31-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="4" customWidth="1" min="3" max="3"/>
     <col width="3" customWidth="1" min="4" max="4"/>
@@ -482,24 +482,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="17" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="3" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,284 +605,124 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>31-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>29-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>28-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -465,7 +465,7 @@
     <col width="3" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="4" customWidth="1" min="12" max="12"/>
     <col width="3" customWidth="1" min="13" max="13"/>
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>30-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -474,7 +474,7 @@
     <col width="3" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="17" customWidth="1" min="19" max="19"/>
+    <col width="18" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
     <col width="4" customWidth="1" min="21" max="21"/>
     <col width="3" customWidth="1" min="22" max="22"/>
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-November-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>31-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-November-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="18" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,164 +663,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-November-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-November-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="18" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="3" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,284 +605,124 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-November-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>05-November-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>04-November-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>03-November-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>10-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>07-November-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>06-November-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>10-November-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>07-November-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-November-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>10-November-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="18" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,164 +663,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-November-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-November-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>10-November-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="18" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="3" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,284 +605,124 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>13-November-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>12-November-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>11-November-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>10-November-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>17-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>14-November-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>13-November-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -609,87 +609,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>17-November-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>14-November-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,124 +614,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-November-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>17-November-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-country.xlsx
+++ b/minio-report-tracker/xlxs/qa-country.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="18" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,164 +663,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-November-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-November-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>17-November-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
